--- a/Documentos/EJERCICIOS DEFINITIVOS/Isquiotibiales/0 Isquiotibiales Ejercicios.xlsx
+++ b/Documentos/EJERCICIOS DEFINITIVOS/Isquiotibiales/0 Isquiotibiales Ejercicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CETI\7to Semestre\0 EvoltFit\Evoltfit-web\Documentos\EJERCICIOS DEFINITIVOS\Isquiotibiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE492602-70A6-4CA9-BC64-025BA7A16820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4FF5F1-0116-4545-B71A-2F497129A00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{9FF0EE0F-1A49-644D-862B-969E3605F98A}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="21000" xr2:uid="{9FF0EE0F-1A49-644D-862B-969E3605F98A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t>Nombre</t>
   </si>
@@ -213,12 +213,6 @@
     <t>Evitar usar excesivamente la espalda baja, procurar enfocar isquiotibiales, procurar mantener buena postura, procurar configurar adecuadamente la máquina, procurar controlar el movimiento.</t>
   </si>
   <si>
-    <t>Hiperextensión en Banco Plano</t>
-  </si>
-  <si>
-    <t>Banco plano</t>
-  </si>
-  <si>
     <t>BENCH HYPEREXTENSION</t>
   </si>
   <si>
@@ -255,6 +249,45 @@
   <si>
     <t>El peso muerto a una pierna es un ejercicio eficaz para fortalecer, tonificar, endurecer los músculos de los glúteos y mejorar el equilibrio.
 El peso muerto a una pierna trabaja de forma secundaria los músculos centrales, ya que los abdominales y los oblicuos se contraen para estabilizar el cuerpo. Este ejercicio también trabaja los músculos erectores espinales de la espalda, que ayudan a sostener la columna y proporcionan flexibilidad al doblarse en varias direcciones.</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los puentes son una forma efectiva de fortalecer y tonificar los músculos isquiotibiales, que se encuentran en la parte posterior de los muslos. El ejercicio se realiza acostado en el suelo, con las rodillas dobladas y los pies apoyados en el suelo. Luego, se levantan lentamente las caderas hacia arriba mientras se mantienen los glúteos y los abdominales apretados. </t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>Procurar controlar el movimiento, procurar enfocar isquiotibiales, evitar encorvar la espalda, procurar colocar los pies a una distancia correcta.</t>
+  </si>
+  <si>
+    <t>Puente a una Pierna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNILATERAL one leg BRIDGE </t>
+  </si>
+  <si>
+    <t>Puente con Mancuerna</t>
+  </si>
+  <si>
+    <t>DUMBBELL GLUTE BRIDGE</t>
+  </si>
+  <si>
+    <t>GLUTE BRIDGE ON BENCH</t>
+  </si>
+  <si>
+    <t>Puente en Banco</t>
+  </si>
+  <si>
+    <t>Hiperextensión en Banco</t>
+  </si>
+  <si>
+    <t>Puente con Banda de Resistencia</t>
+  </si>
+  <si>
+    <t>BANDED GLUTE BRIDGE</t>
   </si>
 </sst>
 </file>
@@ -638,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EF958E-4EEE-8244-B144-5B66B6AE234E}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -956,13 +989,13 @@
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1">
       <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -979,10 +1012,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -994,18 +1027,18 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1017,18 +1050,18 @@
         <v>17</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1040,35 +1073,125 @@
         <v>17</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" t="s">
         <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1111,153 +1234,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:G2 A3:B3 D3:G3 A4:G6 A7:B7 D7:G7 A8:G8 A9:B10 D9:G10 A11:G11 A12:B13 D12:G13 A14:G14 A15:B15 D15:G15 A17:B17 A16:G16 D17:E17 G17 A18:G40">
+  <conditionalFormatting sqref="A2:G2 A3:B3 D3:G3 A4:G6 A7:B7 D7:G7 A8:G8 A9:B10 D9:G10 A11:G11 A12:B13 D12:G13 A15:B15 D15:G15 A16:G16 A17:B17 D17:E17 G17 A20:B20 A18:G19 A21:G21 A14:G14 A23:G40 A22:B22 D20:G22">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>

--- a/Documentos/EJERCICIOS DEFINITIVOS/Isquiotibiales/0 Isquiotibiales Ejercicios.xlsx
+++ b/Documentos/EJERCICIOS DEFINITIVOS/Isquiotibiales/0 Isquiotibiales Ejercicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CETI\7to Semestre\0 EvoltFit\Evoltfit-web\Documentos\EJERCICIOS DEFINITIVOS\Isquiotibiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4FF5F1-0116-4545-B71A-2F497129A00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FABC288-BF1D-4D38-893E-42147151DFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="21000" xr2:uid="{9FF0EE0F-1A49-644D-862B-969E3605F98A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{9FF0EE0F-1A49-644D-862B-969E3605F98A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
   <si>
     <t>Nombre</t>
   </si>
@@ -288,6 +288,40 @@
   </si>
   <si>
     <t>BANDED GLUTE BRIDGE</t>
+  </si>
+  <si>
+    <t>Evitar encorvar la columna, evitar extender demasiado la espalda procurar controlar el movimiento, procurar mantener la tensión en los músculos inferiores.</t>
+  </si>
+  <si>
+    <t>LEG CURL</t>
+  </si>
+  <si>
+    <t>Curl de Pierna</t>
+  </si>
+  <si>
+    <t>SEATED LEG CURL</t>
+  </si>
+  <si>
+    <t>Curl de Pierna Sentado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Curl de Pierna es un ejercicio de entrenamiento de fuerza que se realiza en una máquina de curl de piernas o en un banco de curl de piernas. El objetivo del Curl de Pierna es trabajar los músculos posteriores del muslo, específicamente los músculos isquiotibiales.
+</t>
+  </si>
+  <si>
+    <t>Procurar movimiento controlado, evitar levantar las caderas, evitar encorvar la espalda, procurar rango de movimiento completo.</t>
+  </si>
+  <si>
+    <t>REVERSE LUNGE</t>
+  </si>
+  <si>
+    <t>Desplante Posterior</t>
+  </si>
+  <si>
+    <t>El desplante posterior es un ejercicio de entrenamiento de fuerza para las piernas que se enfoca en los músculos glúteos, isquiotibiales y cuádriceps. El desplante posterior puede realizarse con el peso corporal o con mancuernas, barras o kettlebells. Es un ejercicio efectivo para fortalecer los músculos de las piernas y mejorar la estabilidad y el equilibrio.</t>
+  </si>
+  <si>
+    <t>Procurar rango de movimiento completo, procurar prosicionamiento correcto de pies, evitar perder el equilibrio, procurar dar pasos no tan cortos ni tan largos.</t>
   </si>
 </sst>
 </file>
@@ -671,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EF958E-4EEE-8244-B144-5B66B6AE234E}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1195,47 +1229,93 @@
       </c>
     </row>
     <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="D30" t="s">
-        <v>12</v>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:G2 A3:B3 D3:G3 A4:G6 A7:B7 D7:G7 A8:G8 A9:B10 D9:G10 A11:G11 A12:B13 D12:G13 A15:B15 D15:G15 A16:G16 A17:B17 D17:E17 G17 A20:B20 A18:G19 A21:G21 A14:G14 A23:G40 A22:B22 D20:G22">
+  <conditionalFormatting sqref="A2:G2 A3:B3 D3:G3 A4:G6 A7:B7 D7:G7 A8:G8 A9:B10 D9:G10 A11:G11 A12:B13 D12:G13 A14:G14 A15:B15 D15:G15 A16:G16 A17:B17 D17:E17 G17 A18:G19 A20:B20 A21:G21 A27:G40 A22:B26 D20:G26">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
